--- a/data/trans_bre/P1427-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P1427-Habitat-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>1.085275540454106</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2.055456304462222</v>
+        <v>2.055456304462221</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>0.3752086983538013</v>
@@ -627,7 +627,7 @@
         <v>0.8087754420666809</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4855995929975992</v>
+        <v>0.4855995929975989</v>
       </c>
     </row>
     <row r="5">
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-1.044975385176982</v>
+        <v>-0.8693571556585707</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.36050580720064</v>
+        <v>-0.3237312924028758</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.5028286786839355</v>
+        <v>0.4326988133391308</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.3932145384826615</v>
+        <v>-0.3237754647332961</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2440634282070536</v>
+        <v>-0.2446509485289492</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09207271916730615</v>
+        <v>0.06851128859974052</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.605305374850725</v>
+        <v>2.515016809060119</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.673407723926211</v>
+        <v>2.778734345369008</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.6345821478405</v>
+        <v>4.048643440960531</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1.759715211913261</v>
+        <v>1.813154586185182</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>3.351794895214822</v>
+        <v>3.190888895683825</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1.121788926356201</v>
+        <v>1.184525734026298</v>
       </c>
     </row>
     <row r="7">
@@ -700,7 +700,7 @@
         <v>0.8541272581296123</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.07425230733230578</v>
+        <v>0.07425230733230648</v>
       </c>
       <c r="F7" s="6" t="n">
         <v>0.3080123843870895</v>
@@ -709,7 +709,7 @@
         <v>1.075414402551793</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02426629610593251</v>
+        <v>0.02426629610593273</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-0.8754895015975248</v>
+        <v>-0.8473173851146854</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-0.0009900828970829342</v>
+        <v>-0.05341377480272666</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-1.047488994226865</v>
+        <v>-1.263099840621893</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3230492904245213</v>
+        <v>-0.3183415428059684</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1303432435973154</v>
+        <v>-0.1477935871581951</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2840361126496033</v>
+        <v>-0.3323200342527511</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.287189308193676</v>
+        <v>2.099313196693763</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.895371097617554</v>
+        <v>1.903514838243869</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.296288731929675</v>
+        <v>1.193298246559449</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.700257773066444</v>
+        <v>1.588295104176793</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>4.25854949307956</v>
+        <v>4.123300982752458</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5328056740660896</v>
+        <v>0.5022861401342795</v>
       </c>
     </row>
     <row r="10">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.4964349204605419</v>
+        <v>-0.4803502885612237</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-0.01023645099863011</v>
+        <v>-0.1464233071531323</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.9906666656726314</v>
+        <v>1.110037966189607</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.3207062074187898</v>
+        <v>-0.2883324688942512</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.131190005209736</v>
+        <v>-0.2401074061049895</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3355829521297039</v>
+        <v>0.3287469665617314</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.274871834033721</v>
+        <v>2.258992710807447</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.420563471789309</v>
+        <v>2.465975600035018</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.195621894976194</v>
+        <v>4.107229549254074</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>2.876570297812342</v>
+        <v>2.976993886406173</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>5.573393938930601</v>
+        <v>5.135523677502929</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.734715150483658</v>
+        <v>2.751386195619616</v>
       </c>
     </row>
     <row r="13">
@@ -873,7 +873,7 @@
         <v>1.505696021157405</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3847159675758286</v>
+        <v>0.3847159675758284</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-1.090511164174592</v>
+        <v>-1.048182473124559</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4954648600271567</v>
+        <v>0.5421397144968467</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-0.1709011483120988</v>
+        <v>-0.2972766673159259</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.3580278512130748</v>
+        <v>-0.3521666102648322</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.2285661804614421</v>
+        <v>0.1964037417378926</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.05341441189032284</v>
+        <v>-0.0738674466633832</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.838721865271592</v>
+        <v>1.882755064692784</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>3.145758636793547</v>
+        <v>3.078584556886789</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.534074215670477</v>
+        <v>2.453590348958382</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.258405736364266</v>
+        <v>1.196555357498003</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>4.196437693182786</v>
+        <v>3.872948744625142</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>1.005855560330926</v>
+        <v>0.9991577031104278</v>
       </c>
     </row>
     <row r="16">
@@ -946,7 +946,7 @@
         <v>1.227554569324429</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1.326600719613363</v>
+        <v>1.326600719613362</v>
       </c>
       <c r="F16" s="6" t="n">
         <v>0.3335523767179392</v>
@@ -955,7 +955,7 @@
         <v>1.177441299768697</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4269247570166962</v>
+        <v>0.426924757016696</v>
       </c>
     </row>
     <row r="17">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-0.08742677180048393</v>
+        <v>-0.05543236660849103</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6643709714962553</v>
+        <v>0.5807155272026844</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6131670327461665</v>
+        <v>0.5605531697107875</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.03955566122699851</v>
+        <v>-0.03212621203701804</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.4768050405008286</v>
+        <v>0.4483101905756763</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1737391424766802</v>
+        <v>0.1597615005277319</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.415895122206625</v>
+        <v>1.386929441536753</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.895201213134668</v>
+        <v>1.832949575587357</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.04581414742062</v>
+        <v>2.011685039688197</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>0.9447986469714048</v>
+        <v>0.811961554120347</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>2.269775553079402</v>
+        <v>2.247296773201008</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7418363169531166</v>
+        <v>0.7236128288588995</v>
       </c>
     </row>
     <row r="19">
